--- a/archiveRunnings.xlsx
+++ b/archiveRunnings.xlsx
@@ -983,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378111624"/>
-        <c:axId val="378112800"/>
+        <c:axId val="150928576"/>
+        <c:axId val="150930144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378111624"/>
+        <c:axId val="150928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,12 +1100,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378112800"/>
+        <c:crossAx val="150930144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378112800"/>
+        <c:axId val="150930144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378111624"/>
+        <c:crossAx val="150928576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2151,11 +2151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382331304"/>
-        <c:axId val="382323856"/>
+        <c:axId val="150928184"/>
+        <c:axId val="311382376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382331304"/>
+        <c:axId val="150928184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,12 +2268,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382323856"/>
+        <c:crossAx val="311382376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382323856"/>
+        <c:axId val="311382376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382331304"/>
+        <c:crossAx val="150928184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3338,11 +3338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160149936"/>
-        <c:axId val="160156208"/>
+        <c:axId val="311382768"/>
+        <c:axId val="311376104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160149936"/>
+        <c:axId val="311382768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,12 +3455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160156208"/>
+        <c:crossAx val="311376104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160156208"/>
+        <c:axId val="311376104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3573,7 +3573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160149936"/>
+        <c:crossAx val="311382768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5682,7 +5682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O42" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>

--- a/archiveRunnings.xlsx
+++ b/archiveRunnings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
   <si>
     <t>Last Week</t>
   </si>
@@ -51,7 +51,28 @@
     <t>six month</t>
   </si>
   <si>
+    <t>Min = 2</t>
+  </si>
+  <si>
+    <t>Max = 8</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Last year</t>
+  </si>
+  <si>
+    <t>yr</t>
   </si>
   <si>
     <r>
@@ -78,6 +99,9 @@
       </rPr>
       <t xml:space="preserve"> Year</t>
     </r>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>Two Year</t>
@@ -260,2791 +284,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Current VS Last Week </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"KR"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$N$3:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>112.276004730161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.871110997554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>223.197553352225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334.977374722037</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>410.770491656675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>456.274980222268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>618.329078509553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>507.644660659655</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>733.9809511237</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>677.600847647169</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>970.021753793401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>769.107309672716</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1025.01713757806</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1042.26525345812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1357.58848534634</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1032.05351146849</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1768.45420868037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1066.61836452245</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1645.87937349935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$O$3:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.95535255590153</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.949703034982855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.946151199150525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.943672916051999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.939594012026528</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.936490002467789</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.937352516361392</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.936293133415135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.936463452515287</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.932977115076399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.931491289766003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.933131546478652</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92933007775391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.929399219212168</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.931440463491451</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.932774774009801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.921264641465955</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.929724095320012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.924619654605448</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Winnnowing"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Winnnowing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$F$3:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>49.7996982326422</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.9224911327855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.90833097634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122.722671906704</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>144.177044421785</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167.447591769359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>191.048506309993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>212.733166817326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>236.504724013487</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>259.031718813475</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.840500812588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>300.370941899752</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>319.043558651922</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>338.068417065119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>354.802809501482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>377.53489930071</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>398.854600758689</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>419.830225547716</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>439.383397809981</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>462.730382391381</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>481.125893315726</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>503.526048886785</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>521.42292866964</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>548.482301874285</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>565.522575284637</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>587.692722527739</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>607.889474509447</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>626.447605543986</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>646.309461545805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>666.870186126164</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>693.247334644351</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>715.798169776994</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>742.014506866439</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>764.597336355126</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>789.666970147106</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>818.190420425378</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>836.782858308541</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>855.73828787259</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>885.596982225488</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$G$3:$G$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.968345320607876</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.963191440998711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95942258884797</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.956362689686572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.953841856821833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.951813983183764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.950152869118407</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94850744320208</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.947259610575275</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94607495592313</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.945177523080259</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.944260149484841</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.943535474739394</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.942820371787035</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.942186439391245</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.940377942817735</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.939861164142412</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.939070532504143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.938498037116647</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.937679773098672</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.937210502931014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.936779057141598</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.936335112742724</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.935855853831166</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.935491157760817</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.935106931648737</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.93473217829146</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.93443244061911</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.934070795327182</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.933711055139455</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.933472763546353</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.933132608378071</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.932899290026134</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.932600433625237</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.93222707624379</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.931965268377828</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.931780036190398</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.931590089249502</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.931300811990296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"2min"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$B$3:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>222.956178572616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>342.711796243544</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>490.554050838862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>620.100883086466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>736.959848485857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>882.617660153586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1077.36306427341</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1242.01034655293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1357.96673744536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1487.26485989389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1612.8403120203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1736.6892201638</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1831.28538506062</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1947.5519015765</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2066.76344787032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2160.27886421368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2392.60847738292</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2529.51400184836</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2631.23556498241</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$C$3:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.950164921272591</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.944774780773542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94070618851171</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.938018954162516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.936339738563851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.934458411750608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.932129140047202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92440332526064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.923306075567785</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.921814358302961</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.920472069765076</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91942287809184</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.919018838500644</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.918607184032052</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.918140747434491</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.917880700441224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.915917516749883</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.915606155619762</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.915339558638433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Tddd"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tddd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$J$3:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>195.392460633144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>302.799591294456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>396.822257665519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>516.944143977135</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>638.256853301516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>732.980272502196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>851.078925966256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>875.823874586797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1052.32398553951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1153.08096738053</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1332.44381530568</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1360.85751197621</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1508.0352219093</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1586.18391975449</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1823.68730315341</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1754.50745845584</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2033.66832701645</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1926.97015324861</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2257.36698572352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$K$3:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.946300310420683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.938322906589341</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93363153522569</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.903037154087288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.919101621681526</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.912836301284656</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90493107041666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.916202490837705</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.921306727913244</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.914053693581588</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.916606140404994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.920841275580238</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.902432174465861</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90009043855159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.899774071656175</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.89817857325889</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.897185403271027</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.900800988544521</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.896031788191358</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="5490624"/>
-        <c:axId val="47674982"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="5490624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>BlockSize</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="47674982"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="47674982"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ratio</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="5490624"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Current VS Last Month</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"KR"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$N$25:$N$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>112.276004730161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.871110997554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>223.197553352225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334.977374722037</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>410.770491656675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>456.274980222268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>618.329078509553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>507.644660659655</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>733.9809511237</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>677.600847647169</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>970.021753793401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>769.107309672716</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1025.01713757806</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1042.26525345812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1357.58848534634</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1032.05351146849</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1768.45420868037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1066.61836452245</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1645.87937349935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$O$25:$O$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.89831973141878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.888193563435537</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.881100563353129</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.877390771352319</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.869304859299523</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.864181722590279</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.865633385045719</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.864489739639483</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86394237035131</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.859597772777411</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.855517541960265</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.858514479738659</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.851573340674294</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.852686120770364</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.855489134677669</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.858446483657409</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.842600536776338</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.854410531382687</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.844072042199307</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Winnowing"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Winnowing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$F$47:$F$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>49.7996982326422</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.9224911327855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.90833097634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122.722671906704</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>144.177044421785</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167.447591769359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>191.048506309993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>212.733166817326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>236.504724013487</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>259.031718813475</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.840500812588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>300.370941899752</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>319.043558651922</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>338.068417065119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>354.802809501482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>377.53489930071</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>398.854600758689</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>419.830225547716</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>439.383397809981</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>462.730382391381</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>481.125893315726</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>503.526048886785</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>521.42292866964</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>548.482301874285</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>565.522575284637</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>587.692722527739</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>607.889474509447</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>626.447605543986</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>646.309461545805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>666.870186126164</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>693.247334644351</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>715.798169776994</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>742.014506866439</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>764.597336355126</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>789.666970147106</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>818.190420425378</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>836.782858308541</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>855.73828787259</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>885.596982225488</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$G$47:$G$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.924928507808199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.914258268038351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.906486911402834</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.900440126113296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.895646853537088</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.892124025918982</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88887732801815</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.885978072531095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.883620705580976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.881471868985794</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.879873353987267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.878060263244475</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87675936056986</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.875494351887449</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.874309271563026</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.871559022269882</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.870621105418885</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.869368201239841</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.868517642746161</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.867230300424718</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.866451410970897</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.865680960509167</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.864878164811397</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.864046930459375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.863276933156452</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.862678836466522</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.862155474404189</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.861676329135927</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.861175686303088</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.860609169284572</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.860212783121874</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.859742554237737</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.859400612954534</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.858964923377147</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.858439703225412</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.857977472891755</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.857598449870461</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.857278447733143</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.856873639047845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"2min"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$B$25:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>222.956178572616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>342.711796243544</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>490.554050838862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>620.100883086466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>736.959848485857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>882.617660153586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1077.36306427341</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1242.01034655293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1357.96673744536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1487.26485989389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1612.8403120203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1736.6892201638</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1831.28538506062</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1947.5519015765</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2066.76344787032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2160.27886421368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2392.60847738292</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2529.51400184836</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2631.23556498241</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$C$25:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.889050589466033</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.879265511502508</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87147138185703</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86691129080757</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86395118373522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.860928803032714</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.857088175314823</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.848801003091198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.847006528665422</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.845064903209556</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.843277135412683</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.841716092342424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.841070388806978</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.84046600028816</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.839802837984891</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.839350172096448</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.836070138914138</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.835544796008548</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.835210094388764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Tddd"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tddd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$J$25:$J$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>195.392460633144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>302.799591294456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>396.822257665519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>516.944143977135</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>638.256853301516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>732.980272502196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>851.078925966256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>875.823874586797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1052.32398553951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1153.08096738053</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1332.44381530568</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1360.85751197621</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1508.0352219093</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1586.18391975449</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1823.68730315341</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1754.50745845584</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2033.66832701645</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1926.97015324861</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2257.36698572352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$K$25:$K$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.885721909222058</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.873097833878622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.865791971892038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.833387718091278</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.846891155764152</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83861569017416</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.832124955117498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.843272406363989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.846423741981376</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.840472631236847</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.839524359811039</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.843035360109839</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.824740659173346</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.823262347677966</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.823250753077637</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.823712541030366</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.819835583459956</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.824976979647704</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.817763094360636</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="71654215"/>
-        <c:axId val="17384859"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="71654215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>BlockSize</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="17384859"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="17384859"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ratio</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="71654215"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Current VS Last Year</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"KR"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$N$47:$N$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>112.276004730161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.871110997554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>223.197553352225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334.977374722037</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>410.770491656675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>456.274980222268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>618.329078509553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>507.644660659655</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>733.9809511237</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>677.600847647169</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>970.021753793401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>769.107309672716</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1025.01713757806</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1042.26525345812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1357.58848534634</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1032.05351146849</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1768.45420868037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1066.61836452245</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1645.87937349935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$O$47:$O$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.451778043448194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.411720939995334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.379335918955925</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.376569983107663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.326168240083924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.305625536298657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.308577540530858</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.316387456938135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.322937308488977</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.303179707406775</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.269871828248373</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.290412340157775</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.247738353757483</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.264329206238147</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.26822230067725</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.297067292475972</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.233608090455374</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.285956854099546</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.230475630095268</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Winnowing"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Winnowing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$F$89:$F$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>49.7996982326422</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.9224911327855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.90833097634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122.722671906704</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>144.177044421785</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167.447591769359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>191.048506309993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>212.733166817326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>236.504724013487</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>259.031718813475</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.840500812588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>300.370941899752</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>319.043558651922</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>338.068417065119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>354.802809501482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>377.53489930071</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>398.854600758689</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>419.830225547716</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>439.383397809981</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>462.730382391381</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>481.125893315726</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>503.526048886785</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>521.42292866964</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>548.482301874285</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>565.522575284637</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>587.692722527739</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>607.889474509447</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>626.447605543986</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>646.309461545805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>666.870186126164</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>693.247334644351</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>715.798169776994</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>742.014506866439</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>764.597336355126</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>789.666970147106</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>818.190420425378</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>836.782858308541</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>855.73828787259</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>885.596982225488</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$G$89:$G$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.553860126601425</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.513458771250308</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.485547545983431</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46354486300779</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.443607488847892</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.430584494993809</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.417081425837987</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.406159206207272</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.396185792018299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.385534800629689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.379821415883646</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.372938959925654</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.36759502510626</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.362424778903593</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.358482380199319</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.348039000346496</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.344115072617773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.339830654189258</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.336322219839205</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.332076854670475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.328999062135208</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.325483244550102</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.322033110342858</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.318633641529539</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.316339441695412</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.314344958708715</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.312560475898477</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.311029805778206</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.309199022165431</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.307687440807966</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.306315221280662</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.30474448452882</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.303429565471635</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.301751407682836</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2997114413568</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.297723721684654</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.296243510597219</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.294760683969444</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.292950357360386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"2min"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$B$47:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>222.956178572616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>342.711796243544</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>490.554050838862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>620.100883086466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>736.959848485857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>882.617660153586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1077.36306427341</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1242.01034655293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1357.96673744536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1487.26485989389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1612.8403120203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1736.6892201638</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1831.28538506062</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1947.5519015765</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2066.76344787032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2160.27886421368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2392.60847738292</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2529.51400184836</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2631.23556498241</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$C$47:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.416198386585356</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.379904062476326</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.341801013574054</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.326982721261819</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.315736881050904</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.305178634413179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2894690850135</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27753515942805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.273126083406264</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.262845752215985</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.258373575383011</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.255676418955581</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.253712325778918</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.251599536257422</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.249849668669168</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.248301277856157</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.230272169727562</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.224646805569581</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.223339851047189</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"TDDD"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TDDD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="2"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$J$47:$J$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>195.392460633144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>302.799591294456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>396.822257665519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>516.944143977135</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>638.256853301516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>732.980272502196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>851.078925966256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>875.823874586797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1052.32398553951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1153.08096738053</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1332.44381530568</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1360.85751197621</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1508.0352219093</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1586.18391975449</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1823.68730315341</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1754.50745845584</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2033.66832701645</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1926.97015324861</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2257.36698572352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'archive_set-_upto_1000'!$K$47:$K$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.418634688005043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.372944739881036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.349901172035856</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.314352772832818</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.294519889262748</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.282344779822797</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28108450799342</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.289147707842327</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.292187980916282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.283685673008367</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26004579301201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.24479826149111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.233656271242354</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.232925407598581</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.229968095727255</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25870540501542</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.219255507914765</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.253271760329848</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.218266989920281</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="93882691"/>
-        <c:axId val="34375934"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="93882691"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Block Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="34375934"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="34375934"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ratio</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="93882691"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3925,11 +1165,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="54521075"/>
-        <c:axId val="74935281"/>
+        <c:axId val="91353658"/>
+        <c:axId val="73743541"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54521075"/>
+        <c:axId val="91353658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,11 +1219,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74935281"/>
+        <c:crossAx val="73743541"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74935281"/>
+        <c:axId val="73743541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +1273,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54521075"/>
+        <c:crossAx val="91353658"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4069,7 +1309,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4950,11 +2190,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="19789951"/>
-        <c:axId val="32671590"/>
+        <c:axId val="59874186"/>
+        <c:axId val="6777545"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19789951"/>
+        <c:axId val="59874186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,11 +2244,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32671590"/>
+        <c:crossAx val="6777545"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32671590"/>
+        <c:axId val="6777545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,7 +2298,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19789951"/>
+        <c:crossAx val="59874186"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5094,7 +2334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5975,11 +3215,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="45353326"/>
-        <c:axId val="80569571"/>
+        <c:axId val="9869755"/>
+        <c:axId val="77115197"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45353326"/>
+        <c:axId val="9869755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6029,11 +3269,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80569571"/>
+        <c:crossAx val="77115197"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80569571"/>
+        <c:axId val="77115197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6083,7 +3323,2791 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="45353326"/>
+        <c:crossAx val="9869755"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Current VS Last Week </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"KR"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$N$3:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>112.276004730161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.871110997554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.197553352225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334.977374722037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410.770491656675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.274980222268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618.329078509553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507.644660659655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>733.9809511237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>677.600847647169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>970.021753793401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>769.107309672716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1025.01713757806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1042.26525345812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1357.58848534634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1032.05351146849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1768.45420868037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1066.61836452245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1645.87937349935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$O$3:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.95535255590153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.949703034982855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.946151199150525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.943672916051999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.939594012026528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.936490002467789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.937352516361392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.936293133415135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.936463452515287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.932977115076399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.931491289766003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.933131546478652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92933007775391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.929399219212168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.931440463491451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.932774774009801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.921264641465955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.929724095320012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.924619654605448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Winnnowing"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnnowing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$F$3:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>49.7996982326422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.9224911327855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.90833097634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.722671906704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.177044421785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.447591769359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.048506309993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212.733166817326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236.504724013487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.031718813475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278.840500812588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300.370941899752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319.043558651922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338.068417065119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>354.802809501482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>377.53489930071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>398.854600758689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>419.830225547716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>439.383397809981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>462.730382391381</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>481.125893315726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.526048886785</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>521.42292866964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>548.482301874285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>565.522575284637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>587.692722527739</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>607.889474509447</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>626.447605543986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>646.309461545805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>666.870186126164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>693.247334644351</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>715.798169776994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>742.014506866439</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>764.597336355126</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>789.666970147106</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>818.190420425378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>836.782858308541</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>855.73828787259</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>885.596982225488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$G$3:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.968345320607876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.963191440998711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95942258884797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.956362689686572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.953841856821833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.951813983183764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.950152869118407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94850744320208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.947259610575275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94607495592313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.945177523080259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.944260149484841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.943535474739394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.942820371787035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.942186439391245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.940377942817735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.939861164142412</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.939070532504143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.938498037116647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.937679773098672</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.937210502931014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.936779057141598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.936335112742724</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.935855853831166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.935491157760817</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.935106931648737</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93473217829146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93443244061911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.934070795327182</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.933711055139455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.933472763546353</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.933132608378071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.932899290026134</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.932600433625237</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93222707624379</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.931965268377828</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.931780036190398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.931590089249502</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.931300811990296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2min"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>222.956178572616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342.711796243544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490.554050838862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620.100883086466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>736.959848485857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>882.617660153586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1077.36306427341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1242.01034655293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1357.96673744536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1487.26485989389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1612.8403120203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1736.6892201638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1831.28538506062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1947.5519015765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2066.76344787032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2160.27886421368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2392.60847738292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2529.51400184836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2631.23556498241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.950164921272591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944774780773542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94070618851171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.938018954162516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.936339738563851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.934458411750608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.932129140047202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92440332526064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.923306075567785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.921814358302961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.920472069765076</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91942287809184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.919018838500644</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.918607184032052</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.918140747434491</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.917880700441224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.915917516749883</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.915606155619762</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.915339558638433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Tddd"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tddd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>195.392460633144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302.799591294456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396.822257665519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>516.944143977135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>638.256853301516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.980272502196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>851.078925966256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>875.823874586797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1052.32398553951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1153.08096738053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1332.44381530568</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1360.85751197621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1508.0352219093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1586.18391975449</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1823.68730315341</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1754.50745845584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033.66832701645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1926.97015324861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2257.36698572352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.946300310420683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.938322906589341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93363153522569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.903037154087288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.919101621681526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.912836301284656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90493107041666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.916202490837705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.921306727913244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.914053693581588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.916606140404994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.920841275580238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.902432174465861</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90009043855159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.899774071656175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89817857325889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.897185403271027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.900800988544521</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.896031788191358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="48513507"/>
+        <c:axId val="29680907"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="48513507"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>BlockSize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="29680907"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="29680907"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="48513507"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Current VS Last Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"KR"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$N$25:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>112.276004730161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.871110997554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.197553352225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334.977374722037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410.770491656675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.274980222268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618.329078509553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507.644660659655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>733.9809511237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>677.600847647169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>970.021753793401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>769.107309672716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1025.01713757806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1042.26525345812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1357.58848534634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1032.05351146849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1768.45420868037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1066.61836452245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1645.87937349935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$O$25:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.89831973141878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.888193563435537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.881100563353129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.877390771352319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.869304859299523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.864181722590279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.865633385045719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.864489739639483</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86394237035131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.859597772777411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.855517541960265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.858514479738659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.851573340674294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.852686120770364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.855489134677669</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.858446483657409</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.842600536776338</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.854410531382687</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.844072042199307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Winnowing"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnowing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$F$47:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>49.7996982326422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.9224911327855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.90833097634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.722671906704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.177044421785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.447591769359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.048506309993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212.733166817326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236.504724013487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.031718813475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278.840500812588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300.370941899752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319.043558651922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338.068417065119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>354.802809501482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>377.53489930071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>398.854600758689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>419.830225547716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>439.383397809981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>462.730382391381</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>481.125893315726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.526048886785</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>521.42292866964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>548.482301874285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>565.522575284637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>587.692722527739</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>607.889474509447</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>626.447605543986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>646.309461545805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>666.870186126164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>693.247334644351</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>715.798169776994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>742.014506866439</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>764.597336355126</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>789.666970147106</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>818.190420425378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>836.782858308541</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>855.73828787259</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>885.596982225488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$G$47:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.924928507808199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.914258268038351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.906486911402834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.900440126113296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.895646853537088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.892124025918982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88887732801815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.885978072531095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.883620705580976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.881471868985794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.879873353987267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.878060263244475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87675936056986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.875494351887449</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.874309271563026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.871559022269882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.870621105418885</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.869368201239841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.868517642746161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.867230300424718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.866451410970897</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.865680960509167</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.864878164811397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.864046930459375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.863276933156452</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.862678836466522</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.862155474404189</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.861676329135927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.861175686303088</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.860609169284572</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.860212783121874</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.859742554237737</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.859400612954534</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.858964923377147</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.858439703225412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.857977472891755</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.857598449870461</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.857278447733143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.856873639047845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2min"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$B$25:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>222.956178572616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342.711796243544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490.554050838862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620.100883086466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>736.959848485857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>882.617660153586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1077.36306427341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1242.01034655293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1357.96673744536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1487.26485989389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1612.8403120203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1736.6892201638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1831.28538506062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1947.5519015765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2066.76344787032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2160.27886421368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2392.60847738292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2529.51400184836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2631.23556498241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$C$25:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.889050589466033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.879265511502508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87147138185703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86691129080757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86395118373522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.860928803032714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.857088175314823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.848801003091198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.847006528665422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.845064903209556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.843277135412683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.841716092342424</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.841070388806978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84046600028816</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.839802837984891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.839350172096448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.836070138914138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.835544796008548</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.835210094388764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Tddd"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tddd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$J$25:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>195.392460633144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302.799591294456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396.822257665519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>516.944143977135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>638.256853301516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.980272502196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>851.078925966256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>875.823874586797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1052.32398553951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1153.08096738053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1332.44381530568</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1360.85751197621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1508.0352219093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1586.18391975449</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1823.68730315341</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1754.50745845584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033.66832701645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1926.97015324861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2257.36698572352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$K$25:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.885721909222058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.873097833878622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.865791971892038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.833387718091278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.846891155764152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83861569017416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.832124955117498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.843272406363989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.846423741981376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.840472631236847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.839524359811039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.843035360109839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.824740659173346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.823262347677966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.823250753077637</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.823712541030366</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.819835583459956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.824976979647704</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.817763094360636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="70171999"/>
+        <c:axId val="39159095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70171999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>BlockSize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="39159095"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39159095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="70171999"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Current VS Last Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"KR"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$N$47:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>112.276004730161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.871110997554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.197553352225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334.977374722037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410.770491656675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.274980222268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618.329078509553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507.644660659655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>733.9809511237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>677.600847647169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>970.021753793401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>769.107309672716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1025.01713757806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1042.26525345812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1357.58848534634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1032.05351146849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1768.45420868037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1066.61836452245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1645.87937349935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$O$47:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.451778043448194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.411720939995334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.379335918955925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.376569983107663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.326168240083924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.305625536298657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.308577540530858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.316387456938135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.322937308488977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.303179707406775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.269871828248373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.290412340157775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.247738353757483</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.264329206238147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26822230067725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.297067292475972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.233608090455374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.285956854099546</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.230475630095268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Winnowing"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnowing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$F$89:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>49.7996982326422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.9224911327855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.90833097634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.722671906704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.177044421785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.447591769359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.048506309993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212.733166817326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236.504724013487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.031718813475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278.840500812588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300.370941899752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319.043558651922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338.068417065119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>354.802809501482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>377.53489930071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>398.854600758689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>419.830225547716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>439.383397809981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>462.730382391381</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>481.125893315726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.526048886785</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>521.42292866964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>548.482301874285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>565.522575284637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>587.692722527739</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>607.889474509447</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>626.447605543986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>646.309461545805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>666.870186126164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>693.247334644351</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>715.798169776994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>742.014506866439</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>764.597336355126</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>789.666970147106</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>818.190420425378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>836.782858308541</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>855.73828787259</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>885.596982225488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$G$89:$G$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.553860126601425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.513458771250308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.485547545983431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46354486300779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.443607488847892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.430584494993809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.417081425837987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.406159206207272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.396185792018299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.385534800629689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.379821415883646</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.372938959925654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36759502510626</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.362424778903593</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.358482380199319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.348039000346496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.344115072617773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.339830654189258</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.336322219839205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.332076854670475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.328999062135208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.325483244550102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.322033110342858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.318633641529539</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.316339441695412</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.314344958708715</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.312560475898477</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.311029805778206</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.309199022165431</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.307687440807966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.306315221280662</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30474448452882</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.303429565471635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.301751407682836</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2997114413568</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.297723721684654</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.296243510597219</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.294760683969444</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.292950357360386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2min"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$B$47:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>222.956178572616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342.711796243544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490.554050838862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620.100883086466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>736.959848485857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>882.617660153586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1077.36306427341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1242.01034655293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1357.96673744536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1487.26485989389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1612.8403120203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1736.6892201638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1831.28538506062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1947.5519015765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2066.76344787032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2160.27886421368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2392.60847738292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2529.51400184836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2631.23556498241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$C$47:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.416198386585356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.379904062476326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.341801013574054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.326982721261819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.315736881050904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.305178634413179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2894690850135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27753515942805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.273126083406264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.262845752215985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.258373575383011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.255676418955581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.253712325778918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.251599536257422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.249849668669168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.248301277856157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.230272169727562</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.224646805569581</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.223339851047189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"TDDD"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$J$47:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>195.392460633144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302.799591294456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396.822257665519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>516.944143977135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>638.256853301516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.980272502196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>851.078925966256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>875.823874586797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1052.32398553951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1153.08096738053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1332.44381530568</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1360.85751197621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1508.0352219093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1586.18391975449</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1823.68730315341</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1754.50745845584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033.66832701645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1926.97015324861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2257.36698572352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'archive_set-_upto_1000'!$K$47:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.418634688005043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.372944739881036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.349901172035856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.314352772832818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.294519889262748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.282344779822797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28108450799342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.289147707842327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.292187980916282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.283685673008367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26004579301201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24479826149111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.233656271242354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.232925407598581</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.229968095727255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25870540501542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.219255507914765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.253271760329848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218266989920281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="23757064"/>
+        <c:axId val="83646193"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="23757064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="83646193"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83646193"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="23757064"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6124,15 +6148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:colOff>241200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:colOff>696960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6140,8 +6164,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16755840" y="739440"/>
-        <a:ext cx="5031720" cy="2742120"/>
+        <a:off x="16782840" y="730440"/>
+        <a:ext cx="5031360" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6154,15 +6178,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:colOff>451080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6170,8 +6194,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16202880" y="3892320"/>
-        <a:ext cx="5108760" cy="2742120"/>
+        <a:off x="16229880" y="3883320"/>
+        <a:ext cx="5108400" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6184,15 +6208,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>460440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6200,8 +6224,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16975080" y="8464320"/>
-        <a:ext cx="5108760" cy="2742120"/>
+        <a:off x="17002080" y="8455320"/>
+        <a:ext cx="5108400" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6218,16 +6242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6235,8 +6259,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16755840" y="715680"/>
-        <a:ext cx="5031720" cy="2655360"/>
+        <a:off x="16782840" y="706680"/>
+        <a:ext cx="5031360" cy="2655000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6248,16 +6272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6265,8 +6289,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16202880" y="3768840"/>
-        <a:ext cx="5108760" cy="2655360"/>
+        <a:off x="16229880" y="3759840"/>
+        <a:ext cx="5108400" cy="2655000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6278,16 +6302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6295,8 +6319,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16975080" y="8196480"/>
-        <a:ext cx="5108760" cy="2655360"/>
+        <a:off x="17002080" y="8187480"/>
+        <a:ext cx="5108400" cy="2655000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9348,10 +9372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H96" activeCellId="0" sqref="H96"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9360,8 +9384,8 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.6275303643725"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.995951417004"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="10.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="10.6275303643725"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6275303643725"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.995951417004"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.6275303643725"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.5748987854251"/>
@@ -9381,9 +9405,6 @@
         <v>2</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="0" t="s">
@@ -9413,13 +9434,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>5</v>
@@ -9450,14 +9465,8 @@
       <c r="G3" s="0" t="n">
         <v>0.606735199778469</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>195.392460633144</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0.946300310420683</v>
+      <c r="I3" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>100</v>
@@ -9488,15 +9497,6 @@
       <c r="G4" s="0" t="n">
         <v>0.559303017094967</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>302.799591294456</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0.938322906589341</v>
-      </c>
       <c r="M4" s="0" t="n">
         <v>150</v>
       </c>
@@ -9526,14 +9526,14 @@
       <c r="G5" s="0" t="n">
         <v>0.52523119678539</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>396.822257665519</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0.93363153522569</v>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>200</v>
@@ -9565,13 +9565,13 @@
         <v>0.498335726004402</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>516.944143977135</v>
+        <v>314.790110527081</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.903037154087288</v>
+        <v>0.375033142576515</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>250</v>
@@ -9603,13 +9603,13 @@
         <v>0.474330478646199</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>638.256853301516</v>
+        <v>477.241661529637</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.919101621681526</v>
+        <v>0.34218225409693</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>300</v>
@@ -9641,13 +9641,13 @@
         <v>0.458780642506557</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>732.980272502196</v>
+        <v>617.519398998652</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.912836301284656</v>
+        <v>0.320240686455648</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>350</v>
@@ -9679,13 +9679,13 @@
         <v>0.44314784082399</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>851.078925966256</v>
+        <v>831.686452555407</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.90493107041666</v>
+        <v>0.315993575615006</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>400</v>
@@ -9717,13 +9717,13 @@
         <v>0.42900616137501</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>875.823874586797</v>
+        <v>1028.34783286189</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.916202490837705</v>
+        <v>0.254711097120299</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>450</v>
@@ -9755,13 +9755,13 @@
         <v>0.417208593219648</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1052.32398553951</v>
+        <v>1211.71292243582</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.921306727913244</v>
+        <v>0.253976481802401</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>500</v>
@@ -9771,6 +9771,9 @@
       </c>
       <c r="O11" s="0" t="n">
         <v>0.315910272464974</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9793,13 +9796,13 @@
         <v>0.406406210009062</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1153.08096738053</v>
+        <v>1409.98836838588</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.914053693581588</v>
+        <v>0.246575382400015</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>550</v>
@@ -9831,13 +9834,13 @@
         <v>0.398956327048437</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1332.44381530568</v>
+        <v>1412.64605376759</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.916606140404994</v>
+        <v>0.23656066657246</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>600</v>
@@ -9869,13 +9872,13 @@
         <v>0.389566643914219</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1360.85751197621</v>
+        <v>1736.07277750689</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.920841275580238</v>
+        <v>0.248292115430515</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>650</v>
@@ -9907,13 +9910,13 @@
         <v>0.383457443541632</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1508.0352219093</v>
+        <v>1815.40063119629</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.902432174465861</v>
+        <v>0.247804837271295</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>700</v>
@@ -9945,13 +9948,13 @@
         <v>0.377444983563825</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1586.18391975449</v>
+        <v>2192.36626343977</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.90009043855159</v>
+        <v>0.206815224765735</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>750</v>
@@ -9983,13 +9986,13 @@
         <v>0.372107910653732</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1823.68730315341</v>
+        <v>2094.89326445823</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.899774071656175</v>
+        <v>0.209307913700234</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>800</v>
@@ -10021,13 +10024,13 @@
         <v>0.36087582138364</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1754.50745845584</v>
+        <v>2429.81005744183</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.89817857325889</v>
+        <v>0.191809125155323</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>850</v>
@@ -10059,13 +10062,13 @@
         <v>0.356035842301978</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>2033.66832701645</v>
+        <v>2615.50363178341</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.897185403271027</v>
+        <v>0.178419703437489</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>900</v>
@@ -10097,13 +10100,13 @@
         <v>0.350755064418672</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1926.97015324861</v>
+        <v>2850.59441133997</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.900800988544521</v>
+        <v>0.19031473725679</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>950</v>
@@ -10135,13 +10138,13 @@
         <v>0.346728341531386</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>2257.36698572352</v>
+        <v>2750.42099347067</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.896031788191358</v>
+        <v>0.209620630047639</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>1000</v>
@@ -10163,6 +10166,15 @@
       <c r="G22" s="0" t="n">
         <v>0.341679856956612</v>
       </c>
+      <c r="I22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>3397.87874635255</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.16546308738816</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -10177,11 +10189,17 @@
       <c r="G23" s="0" t="n">
         <v>0.337924188562844</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>8</v>
+      <c r="I23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>3121.81037446717</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.221019302921657</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,14 +10221,14 @@
       <c r="G24" s="0" t="n">
         <v>0.333837965959628</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>7</v>
+      <c r="I24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>3746.09062424309</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.154944563323313</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>5</v>
@@ -10241,14 +10259,14 @@
       <c r="G25" s="0" t="n">
         <v>0.329623668858539</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>195.392460633144</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0.885721909222058</v>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>100</v>
@@ -10280,13 +10298,13 @@
         <v>0.325800499845431</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>302.799591294456</v>
+        <v>314.790110527081</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.873097833878622</v>
+        <v>0.344569948180652</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>150</v>
@@ -10318,13 +10336,13 @@
         <v>0.322031183788342</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>396.822257665519</v>
+        <v>477.241661529637</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.865791971892038</v>
+        <v>0.31085385855647</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>200</v>
@@ -10356,13 +10374,13 @@
         <v>0.318919636615342</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>516.944143977135</v>
+        <v>617.519398998652</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.833387718091278</v>
+        <v>0.286767224488988</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>250</v>
@@ -10394,13 +10412,13 @@
         <v>0.316540088340724</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>638.256853301516</v>
+        <v>831.686452555407</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.846891155764152</v>
+        <v>0.285736655407884</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>300</v>
@@ -10432,13 +10450,13 @@
         <v>0.314177373243371</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>732.980272502196</v>
+        <v>1028.34783286189</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.83861569017416</v>
+        <v>0.233817237837265</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>350</v>
@@ -10470,13 +10488,13 @@
         <v>0.312080867719681</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>851.078925966256</v>
+        <v>1211.71292243582</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.832124955117498</v>
+        <v>0.227568545216521</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>400</v>
@@ -10508,13 +10526,13 @@
         <v>0.309818443498393</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>875.823874586797</v>
+        <v>1409.98836838588</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.843272406363989</v>
+        <v>0.223756063675861</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>450</v>
@@ -10546,13 +10564,13 @@
         <v>0.308056497909172</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1052.32398553951</v>
+        <v>1412.64605376759</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.846423741981376</v>
+        <v>0.214780715093838</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>500</v>
@@ -10584,13 +10602,13 @@
         <v>0.30624561831137</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>1153.08096738053</v>
+        <v>1736.07277750689</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.840472631236847</v>
+        <v>0.225996265405158</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>550</v>
@@ -10622,13 +10640,13 @@
         <v>0.304561348919347</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1332.44381530568</v>
+        <v>1815.40063119629</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.839524359811039</v>
+        <v>0.228554731681435</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>600</v>
@@ -10660,13 +10678,13 @@
         <v>0.302461284643323</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>1360.85751197621</v>
+        <v>2192.36626343977</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.843035360109839</v>
+        <v>0.184239300506999</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>650</v>
@@ -10698,13 +10716,13 @@
         <v>0.298851612960036</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>1508.0352219093</v>
+        <v>2094.89326445823</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.824740659173346</v>
+        <v>0.189798302659866</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>700</v>
@@ -10736,13 +10754,13 @@
         <v>0.296551021434306</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>1586.18391975449</v>
+        <v>2429.81005744183</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.823262347677966</v>
+        <v>0.174310573557182</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>750</v>
@@ -10774,13 +10792,13 @@
         <v>0.294575296141626</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1823.68730315341</v>
+        <v>2615.50363178341</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.823250753077637</v>
+        <v>0.162199172300605</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>800</v>
@@ -10812,13 +10830,13 @@
         <v>0.292871026054455</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>1754.50745845584</v>
+        <v>2850.59441133997</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.823712541030366</v>
+        <v>0.175176118905238</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>850</v>
@@ -10850,13 +10868,13 @@
         <v>0.290611197190134</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>2033.66832701645</v>
+        <v>2750.42099347067</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.819835583459956</v>
+        <v>0.193454095913467</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>900</v>
@@ -10879,13 +10897,13 @@
         <v>0.180715680065913</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>1926.97015324861</v>
+        <v>3397.87874635255</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.824976979647704</v>
+        <v>0.151002534175443</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>950</v>
@@ -10908,13 +10926,13 @@
         <v>0.179251233028748</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>2257.36698572352</v>
+        <v>3121.81037446717</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.817763094360636</v>
+        <v>0.205436825991526</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>1000</v>
@@ -10926,18 +10944,35 @@
         <v>0.189772519965457</v>
       </c>
     </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>3746.09062424309</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.141408034388232</v>
+      </c>
+    </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,14 +10994,14 @@
       <c r="G46" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>7</v>
+      <c r="I46" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>314.790110527081</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.296973541480069</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>5</v>
@@ -10998,13 +11033,13 @@
         <v>0.533386341526766</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>195.392460633144</v>
+        <v>477.241661529637</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.418634688005043</v>
+        <v>0.272981100563614</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>100</v>
@@ -11036,13 +11071,13 @@
         <v>0.490643218927289</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>302.799591294456</v>
+        <v>617.519398998652</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.372944739881036</v>
+        <v>0.251689671206854</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>150</v>
@@ -11074,13 +11109,13 @@
         <v>0.462429892311178</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>396.822257665519</v>
+        <v>831.686452555407</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.349901172035856</v>
+        <v>0.24781236276298</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>200</v>
@@ -11112,13 +11147,13 @@
         <v>0.440155956268287</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>516.944143977135</v>
+        <v>1028.34783286189</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.314352772832818</v>
+        <v>0.206651808563849</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>250</v>
@@ -11150,13 +11185,13 @@
         <v>0.418062874054311</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>638.256853301516</v>
+        <v>1211.71292243582</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0.294519889262748</v>
+        <v>0.202434866108755</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>300</v>
@@ -11188,13 +11223,13 @@
         <v>0.404408866135973</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>732.980272502196</v>
+        <v>1409.98836838588</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.282344779822797</v>
+        <v>0.200140449232204</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>350</v>
@@ -11226,13 +11261,13 @@
         <v>0.390569461381094</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>851.078925966256</v>
+        <v>1412.64605376759</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.28108450799342</v>
+        <v>0.193955171947958</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>400</v>
@@ -11264,13 +11299,13 @@
         <v>0.378456777010121</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>875.823874586797</v>
+        <v>1736.07277750689</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.289147707842327</v>
+        <v>0.204542878304773</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>450</v>
@@ -11302,13 +11337,13 @@
         <v>0.368457536971458</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>1052.32398553951</v>
+        <v>1815.40063119629</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.292187980916282</v>
+        <v>0.208278320130319</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>500</v>
@@ -11340,13 +11375,13 @@
         <v>0.358274758272751</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>1153.08096738053</v>
+        <v>2192.36626343977</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0.283685673008367</v>
+        <v>0.166777842963138</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>550</v>
@@ -11378,13 +11413,13 @@
         <v>0.352508893321501</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>1332.44381530568</v>
+        <v>2094.89326445823</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.26004579301201</v>
+        <v>0.170749012854107</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>600</v>
@@ -11416,13 +11451,13 @@
         <v>0.346071431446451</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>1360.85751197621</v>
+        <v>2429.81005744183</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.24479826149111</v>
+        <v>0.158072646069881</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>650</v>
@@ -11454,13 +11489,13 @@
         <v>0.340872096964711</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>1508.0352219093</v>
+        <v>2615.50363178341</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>0.233656271242354</v>
+        <v>0.147076558264211</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>700</v>
@@ -11492,13 +11527,13 @@
         <v>0.335879361047012</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>1586.18391975449</v>
+        <v>2850.59441133997</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.232925407598581</v>
+        <v>0.159456160164586</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>750</v>
@@ -11530,13 +11565,13 @@
         <v>0.331476703704488</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>1823.68730315341</v>
+        <v>2750.42099347067</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.229968095727255</v>
+        <v>0.176128016020291</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>800</v>
@@ -11568,13 +11603,13 @@
         <v>0.320762433701436</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>1754.50745845584</v>
+        <v>3397.87874635255</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.25870540501542</v>
+        <v>0.137477385007442</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>850</v>
@@ -11606,13 +11641,13 @@
         <v>0.316911185285599</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>2033.66832701645</v>
+        <v>3121.81037446717</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.219255507914765</v>
+        <v>0.19081593322824</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>900</v>
@@ -11644,13 +11679,13 @@
         <v>0.312386076287725</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>1926.97015324861</v>
+        <v>3746.09062424309</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.253271760329848</v>
+        <v>0.128082519660329</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>950</v>
@@ -11680,15 +11715,6 @@
       </c>
       <c r="G65" s="0" t="n">
         <v>0.309063653362458</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>2257.36698572352</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <v>0.218266989920281</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>1000</v>
